--- a/Project1/Results/final_simulation_metrics.xlsx
+++ b/Project1/Results/final_simulation_metrics.xlsx
@@ -475,22 +475,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>1.001126555037966</v>
+        <v>1.003668216938016</v>
       </c>
       <c r="C2" t="n">
-        <v>3.336876394316948</v>
+        <v>3.394788793797852</v>
       </c>
       <c r="D2" t="n">
-        <v>4.006179317637467</v>
+        <v>4.145568137295935</v>
       </c>
       <c r="E2" t="n">
         <v>0.0372</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0026</v>
+        <v>0.0017</v>
       </c>
       <c r="G2" t="n">
-        <v>0.07674114802913107</v>
+        <v>0.07863798846310006</v>
       </c>
     </row>
     <row r="3">
@@ -498,22 +498,22 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>2.022176096961597</v>
+        <v>1.991239078592634</v>
       </c>
       <c r="C3" t="n">
-        <v>6.665484089303749</v>
+        <v>6.434855083554658</v>
       </c>
       <c r="D3" t="n">
-        <v>7.97325071818433</v>
+        <v>7.868223546741203</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0759</v>
+        <v>0.066</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0059</v>
+        <v>0.0065</v>
       </c>
       <c r="G3" t="n">
-        <v>0.07807242389995392</v>
+        <v>0.07742828332768663</v>
       </c>
     </row>
     <row r="4">
@@ -521,22 +521,22 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>2.984288447665222</v>
+        <v>2.923359219646369</v>
       </c>
       <c r="C4" t="n">
-        <v>10.01197545914355</v>
+        <v>9.874477445934657</v>
       </c>
       <c r="D4" t="n">
-        <v>12.21487642954357</v>
+        <v>12.17291179166326</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1146</v>
+        <v>0.1057</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0196</v>
+        <v>0.0159</v>
       </c>
       <c r="G4" t="n">
-        <v>0.08450933670477107</v>
+        <v>0.08465484287274999</v>
       </c>
     </row>
     <row r="5">
@@ -544,22 +544,22 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>3.968619152387732</v>
+        <v>3.994939554569866</v>
       </c>
       <c r="C5" t="n">
-        <v>13.14945504258882</v>
+        <v>13.11929761709967</v>
       </c>
       <c r="D5" t="n">
-        <v>15.63299441834232</v>
+        <v>16.64747848369713</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1554</v>
+        <v>0.1603</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0384</v>
+        <v>0.0353</v>
       </c>
       <c r="G5" t="n">
-        <v>0.08678403854708851</v>
+        <v>0.08865907575433082</v>
       </c>
     </row>
     <row r="6">
@@ -567,22 +567,22 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>5.073056939734688</v>
+        <v>5.099199242629397</v>
       </c>
       <c r="C6" t="n">
-        <v>17.15427463379739</v>
+        <v>16.69065583990844</v>
       </c>
       <c r="D6" t="n">
-        <v>20.99496048354198</v>
+        <v>20.72038285944763</v>
       </c>
       <c r="E6" t="n">
-        <v>0.2079</v>
+        <v>0.1978</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0631</v>
+        <v>0.0558</v>
       </c>
       <c r="G6" t="n">
-        <v>0.09492232312590043</v>
+        <v>0.09157257000396632</v>
       </c>
     </row>
     <row r="7">
@@ -590,22 +590,22 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>6.000773374490707</v>
+        <v>6.120879221941736</v>
       </c>
       <c r="C7" t="n">
-        <v>19.7749529083113</v>
+        <v>20.51141273621081</v>
       </c>
       <c r="D7" t="n">
-        <v>23.33051033936816</v>
+        <v>23.95944084560499</v>
       </c>
       <c r="E7" t="n">
-        <v>0.2401</v>
+        <v>0.2738</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0862</v>
+        <v>0.0864</v>
       </c>
       <c r="G7" t="n">
-        <v>0.09282562394571788</v>
+        <v>0.09667289387431302</v>
       </c>
     </row>
     <row r="8">
@@ -613,22 +613,22 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>6.939095432728299</v>
+        <v>6.920357674724736</v>
       </c>
       <c r="C8" t="n">
-        <v>23.01848163479314</v>
+        <v>23.20239562484219</v>
       </c>
       <c r="D8" t="n">
-        <v>27.66341727460567</v>
+        <v>27.39669631054638</v>
       </c>
       <c r="E8" t="n">
-        <v>0.3031</v>
+        <v>0.3043</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1059</v>
+        <v>0.127</v>
       </c>
       <c r="G8" t="n">
-        <v>0.09926198546783538</v>
+        <v>0.1007737462458325</v>
       </c>
     </row>
     <row r="9">
@@ -636,22 +636,22 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>7.90459053010346</v>
+        <v>7.947550706442118</v>
       </c>
       <c r="C9" t="n">
-        <v>26.84536194372039</v>
+        <v>26.26782124650154</v>
       </c>
       <c r="D9" t="n">
-        <v>31.64256472162761</v>
+        <v>31.72444019172626</v>
       </c>
       <c r="E9" t="n">
-        <v>0.3807</v>
+        <v>0.3529</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1803</v>
+        <v>0.1727</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1110977070427031</v>
+        <v>0.1062374328225661</v>
       </c>
     </row>
     <row r="10">
@@ -659,22 +659,22 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>8.876701081804107</v>
+        <v>8.91874359673105</v>
       </c>
       <c r="C10" t="n">
-        <v>29.26592216843405</v>
+        <v>29.3544733471046</v>
       </c>
       <c r="D10" t="n">
-        <v>35.97465928557354</v>
+        <v>35.23149663038517</v>
       </c>
       <c r="E10" t="n">
-        <v>0.4074</v>
+        <v>0.4637</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2078</v>
+        <v>0.2515</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1105318162253335</v>
+        <v>0.1152145212650224</v>
       </c>
     </row>
     <row r="11">
@@ -682,22 +682,22 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>10.00621452760507</v>
+        <v>9.941712675803801</v>
       </c>
       <c r="C11" t="n">
-        <v>33.56649514287568</v>
+        <v>33.61151747611915</v>
       </c>
       <c r="D11" t="n">
-        <v>41.30396349756013</v>
+        <v>40.35291760776435</v>
       </c>
       <c r="E11" t="n">
-        <v>0.5152</v>
+        <v>0.5185</v>
       </c>
       <c r="F11" t="n">
-        <v>0.3274</v>
+        <v>0.3243</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1244944096347774</v>
+        <v>0.1246149809671791</v>
       </c>
     </row>
     <row r="12">
@@ -705,22 +705,22 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>10.95928400837883</v>
+        <v>11.03347632208776</v>
       </c>
       <c r="C12" t="n">
-        <v>37.16348268715359</v>
+        <v>37.32099154204608</v>
       </c>
       <c r="D12" t="n">
-        <v>43.52222988956014</v>
+        <v>43.40730117761927</v>
       </c>
       <c r="E12" t="n">
-        <v>0.5636</v>
+        <v>0.6113</v>
       </c>
       <c r="F12" t="n">
-        <v>0.3705</v>
+        <v>0.3728</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1267347158292787</v>
+        <v>0.1272742642982534</v>
       </c>
     </row>
     <row r="13">
@@ -728,22 +728,22 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>12.05819867617564</v>
+        <v>12.17463673910663</v>
       </c>
       <c r="C13" t="n">
-        <v>41.28334401113406</v>
+        <v>40.07796184798833</v>
       </c>
       <c r="D13" t="n">
-        <v>49.30645197706264</v>
+        <v>47.59273468106169</v>
       </c>
       <c r="E13" t="n">
-        <v>0.6986</v>
+        <v>0.6775</v>
       </c>
       <c r="F13" t="n">
-        <v>0.5718</v>
+        <v>0.4564</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1460177922932646</v>
+        <v>0.1339864671212678</v>
       </c>
     </row>
     <row r="14">
@@ -751,22 +751,22 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>13.00447599600072</v>
+        <v>12.83477637144058</v>
       </c>
       <c r="C14" t="n">
-        <v>43.73434484283706</v>
+        <v>42.66424500818523</v>
       </c>
       <c r="D14" t="n">
-        <v>51.6859906774984</v>
+        <v>51.94803270535133</v>
       </c>
       <c r="E14" t="n">
-        <v>0.7762</v>
+        <v>0.7447</v>
       </c>
       <c r="F14" t="n">
-        <v>0.6388</v>
+        <v>0.6449</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1483849716652303</v>
+        <v>0.1489270263112659</v>
       </c>
     </row>
     <row r="15">
@@ -774,22 +774,22 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>14.15248722970793</v>
+        <v>14.03783552859823</v>
       </c>
       <c r="C15" t="n">
-        <v>49.16683608673142</v>
+        <v>46.53787180622361</v>
       </c>
       <c r="D15" t="n">
-        <v>57.66769492249099</v>
+        <v>57.83739763369301</v>
       </c>
       <c r="E15" t="n">
-        <v>1.0188</v>
+        <v>0.8914</v>
       </c>
       <c r="F15" t="n">
-        <v>0.8018</v>
+        <v>0.9963</v>
       </c>
       <c r="G15" t="n">
-        <v>0.1696670970256895</v>
+        <v>0.1769785447232668</v>
       </c>
     </row>
     <row r="16">
@@ -797,22 +797,22 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>15.15181700425522</v>
+        <v>15.05258007381593</v>
       </c>
       <c r="C16" t="n">
-        <v>49.75610129404819</v>
+        <v>50.62406375294884</v>
       </c>
       <c r="D16" t="n">
-        <v>62.30172000185431</v>
+        <v>61.48652059893062</v>
       </c>
       <c r="E16" t="n">
-        <v>1.0579</v>
+        <v>1.0735</v>
       </c>
       <c r="F16" t="n">
-        <v>1.1429</v>
+        <v>1.1868</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1851612381537063</v>
+        <v>0.1904856848916174</v>
       </c>
     </row>
     <row r="17">
@@ -820,22 +820,22 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>15.94525449983264</v>
+        <v>15.69617408885703</v>
       </c>
       <c r="C17" t="n">
-        <v>52.7098673060046</v>
+        <v>52.0623369987539</v>
       </c>
       <c r="D17" t="n">
-        <v>62.00637639064395</v>
+        <v>65.88188688283653</v>
       </c>
       <c r="E17" t="n">
-        <v>1.1877</v>
+        <v>1.1226</v>
       </c>
       <c r="F17" t="n">
-        <v>1.1147</v>
+        <v>1.4282</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1824263766598072</v>
+        <v>0.2060142514291874</v>
       </c>
     </row>
     <row r="18">
@@ -843,22 +843,22 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>16.64511339100157</v>
+        <v>16.89141336367431</v>
       </c>
       <c r="C18" t="n">
-        <v>53.81165243351681</v>
+        <v>55.70897052132202</v>
       </c>
       <c r="D18" t="n">
-        <v>63.60110316300221</v>
+        <v>67.58792648534198</v>
       </c>
       <c r="E18" t="n">
-        <v>1.194</v>
+        <v>1.2143</v>
       </c>
       <c r="F18" t="n">
-        <v>1.3558</v>
+        <v>1.5502</v>
       </c>
       <c r="G18" t="n">
-        <v>0.1937954422903054</v>
+        <v>0.2041088090494248</v>
       </c>
     </row>
     <row r="19">
@@ -866,22 +866,22 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>17.72414003403762</v>
+        <v>17.71678300648022</v>
       </c>
       <c r="C19" t="n">
-        <v>59.36957770066537</v>
+        <v>58.96992572762358</v>
       </c>
       <c r="D19" t="n">
-        <v>71.32576845402518</v>
+        <v>73.78598881228461</v>
       </c>
       <c r="E19" t="n">
-        <v>1.4623</v>
+        <v>1.4976</v>
       </c>
       <c r="F19" t="n">
-        <v>2.1671</v>
+        <v>2.873</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2452773388164881</v>
+        <v>0.2852426012207917</v>
       </c>
     </row>
     <row r="20">
@@ -889,22 +889,22 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>19.14456194945493</v>
+        <v>19.252129854966</v>
       </c>
       <c r="C20" t="n">
-        <v>64.7956961178389</v>
+        <v>63.58561659301017</v>
       </c>
       <c r="D20" t="n">
-        <v>78.98918267029106</v>
+        <v>73.97094563671224</v>
       </c>
       <c r="E20" t="n">
-        <v>2.0215</v>
+        <v>1.9161</v>
       </c>
       <c r="F20" t="n">
-        <v>3.9321</v>
+        <v>2.8444</v>
       </c>
       <c r="G20" t="n">
-        <v>0.3496680582668067</v>
+        <v>0.2810733518659806</v>
       </c>
     </row>
     <row r="21">
@@ -912,22 +912,22 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>20.13760145661175</v>
+        <v>20.4220096368128</v>
       </c>
       <c r="C21" t="n">
-        <v>67.44725666425731</v>
+        <v>68.14331367074554</v>
       </c>
       <c r="D21" t="n">
-        <v>81.97895859451799</v>
+        <v>81.07025014072245</v>
       </c>
       <c r="E21" t="n">
-        <v>2.2105</v>
+        <v>2.4301</v>
       </c>
       <c r="F21" t="n">
-        <v>3.5684</v>
+        <v>4.3827</v>
       </c>
       <c r="G21" t="n">
-        <v>0.3291879948997326</v>
+        <v>0.3669422160480726</v>
       </c>
     </row>
     <row r="22">
@@ -935,22 +935,22 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>21.33387032087243</v>
+        <v>20.85928357793832</v>
       </c>
       <c r="C22" t="n">
-        <v>70.91783947887372</v>
+        <v>70.22873792700004</v>
       </c>
       <c r="D22" t="n">
-        <v>85.98641373191815</v>
+        <v>83.70095030041746</v>
       </c>
       <c r="E22" t="n">
-        <v>2.687</v>
+        <v>2.8527</v>
       </c>
       <c r="F22" t="n">
-        <v>6.3991</v>
+        <v>5.3156</v>
       </c>
       <c r="G22" t="n">
-        <v>0.4626829606205971</v>
+        <v>0.4278022394285789</v>
       </c>
     </row>
     <row r="23">
@@ -958,22 +958,22 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>21.63967592209674</v>
+        <v>21.92782906609764</v>
       </c>
       <c r="C23" t="n">
-        <v>72.35788694321809</v>
+        <v>73.0737418801402</v>
       </c>
       <c r="D23" t="n">
-        <v>87.73884840512689</v>
+        <v>87.79151487003332</v>
       </c>
       <c r="E23" t="n">
-        <v>2.6524</v>
+        <v>3.1263</v>
       </c>
       <c r="F23" t="n">
-        <v>7.8994</v>
+        <v>10.1479</v>
       </c>
       <c r="G23" t="n">
-        <v>0.5300110717749019</v>
+        <v>0.651283492983796</v>
       </c>
     </row>
     <row r="24">
@@ -981,22 +981,22 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>23.06686574005191</v>
+        <v>22.8669778696904</v>
       </c>
       <c r="C24" t="n">
-        <v>75.03615789099325</v>
+        <v>73.71706396355337</v>
       </c>
       <c r="D24" t="n">
-        <v>92.0946657745916</v>
+        <v>89.52290588953004</v>
       </c>
       <c r="E24" t="n">
-        <v>3.0256</v>
+        <v>2.8836</v>
       </c>
       <c r="F24" t="n">
-        <v>12.4828</v>
+        <v>12.5218</v>
       </c>
       <c r="G24" t="n">
-        <v>0.7098978524969699</v>
+        <v>0.6899525122858111</v>
       </c>
     </row>
     <row r="25">
@@ -1004,22 +1004,22 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>24.0229636906685</v>
+        <v>23.87193095924967</v>
       </c>
       <c r="C25" t="n">
-        <v>80.64867513576833</v>
+        <v>79.66959971230932</v>
       </c>
       <c r="D25" t="n">
-        <v>93.57608461766216</v>
+        <v>96.93544356647136</v>
       </c>
       <c r="E25" t="n">
-        <v>5.1569</v>
+        <v>3.9921</v>
       </c>
       <c r="F25" t="n">
-        <v>11.703</v>
+        <v>32.1399</v>
       </c>
       <c r="G25" t="n">
-        <v>0.740109943480012</v>
+        <v>1.54341509960528</v>
       </c>
     </row>
     <row r="26">
@@ -1027,22 +1027,22 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>24.57286825586329</v>
+        <v>24.69100281668329</v>
       </c>
       <c r="C26" t="n">
-        <v>82.67439923429491</v>
+        <v>82.19706130941714</v>
       </c>
       <c r="D26" t="n">
-        <v>93.57227230170534</v>
+        <v>94.8944498115919</v>
       </c>
       <c r="E26" t="n">
-        <v>5.7232</v>
+        <v>4.9452</v>
       </c>
       <c r="F26" t="n">
-        <v>12.7359</v>
+        <v>33.0372</v>
       </c>
       <c r="G26" t="n">
-        <v>0.7824812641999485</v>
+        <v>1.562999105414677</v>
       </c>
     </row>
     <row r="27">
@@ -1050,22 +1050,22 @@
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>25.60326158021219</v>
+        <v>25.75582026766501</v>
       </c>
       <c r="C27" t="n">
-        <v>86.2411874683529</v>
+        <v>86.72381603132409</v>
       </c>
       <c r="D27" t="n">
-        <v>99.87962318339228</v>
+        <v>99.87203659175317</v>
       </c>
       <c r="E27" t="n">
-        <v>6.2744</v>
+        <v>6.7884</v>
       </c>
       <c r="F27" t="n">
-        <v>184.7219</v>
+        <v>169.2632</v>
       </c>
       <c r="G27" t="n">
-        <v>6.923383757069921</v>
+        <v>6.324484388705581</v>
       </c>
     </row>
     <row r="28">
@@ -1073,22 +1073,22 @@
         <v>27</v>
       </c>
       <c r="B28" t="n">
-        <v>26.60922104596661</v>
+        <v>26.50868460555417</v>
       </c>
       <c r="C28" t="n">
-        <v>87.34794014292665</v>
+        <v>87.75009691465222</v>
       </c>
       <c r="D28" t="n">
-        <v>99.5805523720969</v>
+        <v>99.73106052060903</v>
       </c>
       <c r="E28" t="n">
-        <v>6.664</v>
+        <v>9.0137</v>
       </c>
       <c r="F28" t="n">
-        <v>115.0932</v>
+        <v>116.9098</v>
       </c>
       <c r="G28" t="n">
-        <v>4.345961963500766</v>
+        <v>4.259645671688266</v>
       </c>
     </row>
     <row r="29">
@@ -1096,22 +1096,22 @@
         <v>28</v>
       </c>
       <c r="B29" t="n">
-        <v>26.64457996613317</v>
+        <v>26.96317301990215</v>
       </c>
       <c r="C29" t="n">
-        <v>86.98456864971659</v>
+        <v>88.69681770680276</v>
       </c>
       <c r="D29" t="n">
-        <v>99.3616894582576</v>
+        <v>99.90788037716788</v>
       </c>
       <c r="E29" t="n">
-        <v>7.8112</v>
+        <v>9.5266</v>
       </c>
       <c r="F29" t="n">
-        <v>156.0799</v>
+        <v>198.7124</v>
       </c>
       <c r="G29" t="n">
-        <v>5.667430161735976</v>
+        <v>6.907646386780211</v>
       </c>
     </row>
     <row r="30">
@@ -1119,22 +1119,22 @@
         <v>29</v>
       </c>
       <c r="B30" t="n">
-        <v>27.62168902432272</v>
+        <v>27.37102268272411</v>
       </c>
       <c r="C30" t="n">
-        <v>90.73468583199235</v>
+        <v>91.2187225927803</v>
       </c>
       <c r="D30" t="n">
-        <v>99.68421999830153</v>
+        <v>99.65484024573685</v>
       </c>
       <c r="E30" t="n">
-        <v>9.8644</v>
+        <v>9.498799999999999</v>
       </c>
       <c r="F30" t="n">
-        <v>329.4422</v>
+        <v>252.8282</v>
       </c>
       <c r="G30" t="n">
-        <v>10.06759942207674</v>
+        <v>8.457889117212845</v>
       </c>
     </row>
     <row r="31">
@@ -1142,22 +1142,22 @@
         <v>30</v>
       </c>
       <c r="B31" t="n">
-        <v>28.07833711498262</v>
+        <v>27.8222886676312</v>
       </c>
       <c r="C31" t="n">
-        <v>95.29439994281739</v>
+        <v>93.74790107525411</v>
       </c>
       <c r="D31" t="n">
-        <v>99.19214111951165</v>
+        <v>99.18686478912888</v>
       </c>
       <c r="E31" t="n">
-        <v>25.4573</v>
+        <v>15.7962</v>
       </c>
       <c r="F31" t="n">
-        <v>393.8707</v>
+        <v>308.4847</v>
       </c>
       <c r="G31" t="n">
-        <v>11.60861707101926</v>
+        <v>9.437253574291189</v>
       </c>
     </row>
   </sheetData>

--- a/Project1/Results/final_simulation_metrics.xlsx
+++ b/Project1/Results/final_simulation_metrics.xlsx
@@ -475,22 +475,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>1.003668216938016</v>
+        <v>1.009276993353874</v>
       </c>
       <c r="C2" t="n">
-        <v>3.394788793797852</v>
+        <v>3.405949691825582</v>
       </c>
       <c r="D2" t="n">
-        <v>4.145568137295935</v>
+        <v>4.013666653520072</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0372</v>
+        <v>0.0354</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0017</v>
+        <v>0.0022</v>
       </c>
       <c r="G2" t="n">
-        <v>0.07863798846310006</v>
+        <v>0.07643888449835097</v>
       </c>
     </row>
     <row r="3">
@@ -498,22 +498,22 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>1.991239078592634</v>
+        <v>2.011018171134402</v>
       </c>
       <c r="C3" t="n">
-        <v>6.434855083554658</v>
+        <v>6.859176703709399</v>
       </c>
       <c r="D3" t="n">
-        <v>7.868223546741203</v>
+        <v>8.320724626648655</v>
       </c>
       <c r="E3" t="n">
-        <v>0.066</v>
+        <v>0.0762</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0065</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="G3" t="n">
-        <v>0.07742828332768663</v>
+        <v>0.08219723361950423</v>
       </c>
     </row>
     <row r="4">
@@ -521,22 +521,22 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>2.923359219646369</v>
+        <v>2.979187903081501</v>
       </c>
       <c r="C4" t="n">
-        <v>9.874477445934657</v>
+        <v>9.839834820888701</v>
       </c>
       <c r="D4" t="n">
-        <v>12.17291179166326</v>
+        <v>12.2195713779837</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1057</v>
+        <v>0.1093</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0159</v>
+        <v>0.0215</v>
       </c>
       <c r="G4" t="n">
-        <v>0.08465484287274999</v>
+        <v>0.08464202252391392</v>
       </c>
     </row>
     <row r="5">
@@ -544,22 +544,22 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>3.994939554569866</v>
+        <v>4.016028269172279</v>
       </c>
       <c r="C5" t="n">
-        <v>13.11929761709967</v>
+        <v>13.42947024924219</v>
       </c>
       <c r="D5" t="n">
-        <v>16.64747848369713</v>
+        <v>16.30888165025454</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1603</v>
+        <v>0.1553</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0353</v>
+        <v>0.0287</v>
       </c>
       <c r="G5" t="n">
-        <v>0.08865907575433082</v>
+        <v>0.08706861622028927</v>
       </c>
     </row>
     <row r="6">
@@ -567,22 +567,22 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>5.099199242629397</v>
+        <v>4.994750689313754</v>
       </c>
       <c r="C6" t="n">
-        <v>16.69065583990844</v>
+        <v>16.42890999957302</v>
       </c>
       <c r="D6" t="n">
-        <v>20.72038285944763</v>
+        <v>19.53986376750256</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1978</v>
+        <v>0.1943</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0558</v>
+        <v>0.0531</v>
       </c>
       <c r="G6" t="n">
-        <v>0.09157257000396632</v>
+        <v>0.08909892228528341</v>
       </c>
     </row>
     <row r="7">
@@ -590,22 +590,22 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>6.120879221941736</v>
+        <v>6.005253143327948</v>
       </c>
       <c r="C7" t="n">
-        <v>20.51141273621081</v>
+        <v>19.73228059204473</v>
       </c>
       <c r="D7" t="n">
-        <v>23.95944084560499</v>
+        <v>23.24260483528095</v>
       </c>
       <c r="E7" t="n">
-        <v>0.2738</v>
+        <v>0.2353</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0864</v>
+        <v>0.0915</v>
       </c>
       <c r="G7" t="n">
-        <v>0.09667289387431302</v>
+        <v>0.09425398535939897</v>
       </c>
     </row>
     <row r="8">
@@ -613,22 +613,22 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>6.920357674724736</v>
+        <v>6.904786372201936</v>
       </c>
       <c r="C8" t="n">
-        <v>23.20239562484219</v>
+        <v>22.82451970747578</v>
       </c>
       <c r="D8" t="n">
-        <v>27.39669631054638</v>
+        <v>27.51919823838391</v>
       </c>
       <c r="E8" t="n">
-        <v>0.3043</v>
+        <v>0.2942</v>
       </c>
       <c r="F8" t="n">
-        <v>0.127</v>
+        <v>0.1091</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1007737462458325</v>
+        <v>0.09944555960960745</v>
       </c>
     </row>
     <row r="9">
@@ -636,22 +636,22 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>7.947550706442118</v>
+        <v>7.948931892436349</v>
       </c>
       <c r="C9" t="n">
-        <v>26.26782124650154</v>
+        <v>26.03273277500957</v>
       </c>
       <c r="D9" t="n">
-        <v>31.72444019172626</v>
+        <v>30.40903065509392</v>
       </c>
       <c r="E9" t="n">
-        <v>0.3529</v>
+        <v>0.3708</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1727</v>
+        <v>0.1706</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1062374328225661</v>
+        <v>0.1052271245633475</v>
       </c>
     </row>
     <row r="10">
@@ -659,22 +659,22 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>8.91874359673105</v>
+        <v>9.222393222054061</v>
       </c>
       <c r="C10" t="n">
-        <v>29.3544733471046</v>
+        <v>30.74823839278427</v>
       </c>
       <c r="D10" t="n">
-        <v>35.23149663038517</v>
+        <v>36.03338076558217</v>
       </c>
       <c r="E10" t="n">
-        <v>0.4637</v>
+        <v>0.4668</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2515</v>
+        <v>0.2188</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1152145212650224</v>
+        <v>0.1122696830651807</v>
       </c>
     </row>
     <row r="11">
@@ -682,22 +682,22 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>9.941712675803801</v>
+        <v>9.990002851368061</v>
       </c>
       <c r="C11" t="n">
-        <v>33.61151747611915</v>
+        <v>33.59593504455896</v>
       </c>
       <c r="D11" t="n">
-        <v>40.35291760776435</v>
+        <v>40.16542110466863</v>
       </c>
       <c r="E11" t="n">
-        <v>0.5185</v>
+        <v>0.5256999999999999</v>
       </c>
       <c r="F11" t="n">
-        <v>0.3243</v>
+        <v>0.3118</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1246149809671791</v>
+        <v>0.1231428681877277</v>
       </c>
     </row>
     <row r="12">
@@ -705,22 +705,22 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>11.03347632208776</v>
+        <v>11.01406256616606</v>
       </c>
       <c r="C12" t="n">
-        <v>37.32099154204608</v>
+        <v>37.25599169923816</v>
       </c>
       <c r="D12" t="n">
-        <v>43.40730117761927</v>
+        <v>45.43934817239276</v>
       </c>
       <c r="E12" t="n">
-        <v>0.6113</v>
+        <v>0.614</v>
       </c>
       <c r="F12" t="n">
-        <v>0.3728</v>
+        <v>0.4686</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1272742642982534</v>
+        <v>0.1380454432665541</v>
       </c>
     </row>
     <row r="13">
@@ -728,22 +728,22 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>12.17463673910663</v>
+        <v>12.00078908403046</v>
       </c>
       <c r="C13" t="n">
-        <v>40.07796184798833</v>
+        <v>40.66610234478084</v>
       </c>
       <c r="D13" t="n">
-        <v>47.59273468106169</v>
+        <v>49.42631442378042</v>
       </c>
       <c r="E13" t="n">
-        <v>0.6775</v>
+        <v>0.6868</v>
       </c>
       <c r="F13" t="n">
-        <v>0.4564</v>
+        <v>0.5458</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1339864671212678</v>
+        <v>0.1444588510917573</v>
       </c>
     </row>
     <row r="14">
@@ -751,22 +751,22 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>12.83477637144058</v>
+        <v>13.23328825273808</v>
       </c>
       <c r="C14" t="n">
-        <v>42.66424500818523</v>
+        <v>42.87283065795151</v>
       </c>
       <c r="D14" t="n">
-        <v>51.94803270535133</v>
+        <v>52.25673599658271</v>
       </c>
       <c r="E14" t="n">
-        <v>0.7447</v>
+        <v>0.7693</v>
       </c>
       <c r="F14" t="n">
-        <v>0.6449</v>
+        <v>0.5758</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1489270263112659</v>
+        <v>0.1415809659190841</v>
       </c>
     </row>
     <row r="15">
@@ -774,22 +774,22 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>14.03783552859823</v>
+        <v>14.10731375765185</v>
       </c>
       <c r="C15" t="n">
-        <v>46.53787180622361</v>
+        <v>46.30929852652154</v>
       </c>
       <c r="D15" t="n">
-        <v>57.83739763369301</v>
+        <v>55.58938195940766</v>
       </c>
       <c r="E15" t="n">
-        <v>0.8914</v>
+        <v>0.8915</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9963</v>
+        <v>0.8236</v>
       </c>
       <c r="G15" t="n">
-        <v>0.1769785447232668</v>
+        <v>0.1596019208787156</v>
       </c>
     </row>
     <row r="16">
@@ -797,22 +797,22 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>15.05258007381593</v>
+        <v>15.09789450177866</v>
       </c>
       <c r="C16" t="n">
-        <v>50.62406375294884</v>
+        <v>49.9425141730296</v>
       </c>
       <c r="D16" t="n">
-        <v>61.48652059893062</v>
+        <v>59.04308776635301</v>
       </c>
       <c r="E16" t="n">
-        <v>1.0735</v>
+        <v>1.0407</v>
       </c>
       <c r="F16" t="n">
-        <v>1.1868</v>
+        <v>1.072</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1904856848916174</v>
+        <v>0.177153620051517</v>
       </c>
     </row>
     <row r="17">
@@ -820,22 +820,22 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>15.69617408885703</v>
+        <v>15.99179520793756</v>
       </c>
       <c r="C17" t="n">
-        <v>52.0623369987539</v>
+        <v>52.84994852549848</v>
       </c>
       <c r="D17" t="n">
-        <v>65.88188688283653</v>
+        <v>63.57277725516561</v>
       </c>
       <c r="E17" t="n">
-        <v>1.1226</v>
+        <v>1.0956</v>
       </c>
       <c r="F17" t="n">
-        <v>1.4282</v>
+        <v>1.3216</v>
       </c>
       <c r="G17" t="n">
-        <v>0.2060142514291874</v>
+        <v>0.1923857358135381</v>
       </c>
     </row>
     <row r="18">
@@ -843,22 +843,22 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>16.89141336367431</v>
+        <v>16.95287483811375</v>
       </c>
       <c r="C18" t="n">
-        <v>55.70897052132202</v>
+        <v>56.01775770259972</v>
       </c>
       <c r="D18" t="n">
-        <v>67.58792648534198</v>
+        <v>69.98943944511691</v>
       </c>
       <c r="E18" t="n">
-        <v>1.2143</v>
+        <v>1.2947</v>
       </c>
       <c r="F18" t="n">
-        <v>1.5502</v>
+        <v>1.9308</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2041088090494248</v>
+        <v>0.2336409654501233</v>
       </c>
     </row>
     <row r="19">
@@ -866,22 +866,22 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>17.71678300648022</v>
+        <v>17.88460185734249</v>
       </c>
       <c r="C19" t="n">
-        <v>58.96992572762358</v>
+        <v>59.74899091945694</v>
       </c>
       <c r="D19" t="n">
-        <v>73.78598881228461</v>
+        <v>72.84761525085838</v>
       </c>
       <c r="E19" t="n">
-        <v>1.4976</v>
+        <v>1.6278</v>
       </c>
       <c r="F19" t="n">
-        <v>2.873</v>
+        <v>2.4037</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2852426012207917</v>
+        <v>0.2656755387594036</v>
       </c>
     </row>
     <row r="20">
@@ -889,22 +889,22 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>19.252129854966</v>
+        <v>19.03831668924017</v>
       </c>
       <c r="C20" t="n">
-        <v>63.58561659301017</v>
+        <v>63.7764000836407</v>
       </c>
       <c r="D20" t="n">
-        <v>73.97094563671224</v>
+        <v>77.48476617657938</v>
       </c>
       <c r="E20" t="n">
-        <v>1.9161</v>
+        <v>1.873</v>
       </c>
       <c r="F20" t="n">
-        <v>2.8444</v>
+        <v>2.8372</v>
       </c>
       <c r="G20" t="n">
-        <v>0.2810733518659806</v>
+        <v>0.2901990091907127</v>
       </c>
     </row>
     <row r="21">
@@ -912,22 +912,22 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>20.4220096368128</v>
+        <v>19.78225790609798</v>
       </c>
       <c r="C21" t="n">
-        <v>68.14331367074554</v>
+        <v>66.54354226032999</v>
       </c>
       <c r="D21" t="n">
-        <v>81.07025014072245</v>
+        <v>77.9499720535614</v>
       </c>
       <c r="E21" t="n">
-        <v>2.4301</v>
+        <v>2.2529</v>
       </c>
       <c r="F21" t="n">
-        <v>4.3827</v>
+        <v>2.955</v>
       </c>
       <c r="G21" t="n">
-        <v>0.3669422160480726</v>
+        <v>0.3017187084494763</v>
       </c>
     </row>
     <row r="22">
@@ -935,22 +935,22 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>20.85928357793832</v>
+        <v>20.39469721431105</v>
       </c>
       <c r="C22" t="n">
-        <v>70.22873792700004</v>
+        <v>67.71135834135985</v>
       </c>
       <c r="D22" t="n">
-        <v>83.70095030041746</v>
+        <v>81.79400972780331</v>
       </c>
       <c r="E22" t="n">
-        <v>2.8527</v>
+        <v>2.2565</v>
       </c>
       <c r="F22" t="n">
-        <v>5.3156</v>
+        <v>5.1132</v>
       </c>
       <c r="G22" t="n">
-        <v>0.4278022394285789</v>
+        <v>0.4050439566439696</v>
       </c>
     </row>
     <row r="23">
@@ -958,22 +958,22 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>21.92782906609764</v>
+        <v>21.97813402100101</v>
       </c>
       <c r="C23" t="n">
-        <v>73.0737418801402</v>
+        <v>72.78235672483041</v>
       </c>
       <c r="D23" t="n">
-        <v>87.79151487003332</v>
+        <v>89.8627606763003</v>
       </c>
       <c r="E23" t="n">
-        <v>3.1263</v>
+        <v>2.5915</v>
       </c>
       <c r="F23" t="n">
-        <v>10.1479</v>
+        <v>9.4611</v>
       </c>
       <c r="G23" t="n">
-        <v>0.651283492983796</v>
+        <v>0.5872885517076653</v>
       </c>
     </row>
     <row r="24">
@@ -981,22 +981,22 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>22.8669778696904</v>
+        <v>23.23176154967757</v>
       </c>
       <c r="C24" t="n">
-        <v>73.71706396355337</v>
+        <v>76.93743557756478</v>
       </c>
       <c r="D24" t="n">
-        <v>89.52290588953004</v>
+        <v>95.65879529165888</v>
       </c>
       <c r="E24" t="n">
-        <v>2.8836</v>
+        <v>4.1358</v>
       </c>
       <c r="F24" t="n">
-        <v>12.5218</v>
+        <v>20.5214</v>
       </c>
       <c r="G24" t="n">
-        <v>0.6899525122858111</v>
+        <v>1.089661151712896</v>
       </c>
     </row>
     <row r="25">
@@ -1004,22 +1004,22 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>23.87193095924967</v>
+        <v>24.04125339314627</v>
       </c>
       <c r="C25" t="n">
-        <v>79.66959971230932</v>
+        <v>79.1363237134677</v>
       </c>
       <c r="D25" t="n">
-        <v>96.93544356647136</v>
+        <v>98.25109233100532</v>
       </c>
       <c r="E25" t="n">
-        <v>3.9921</v>
+        <v>3.9085</v>
       </c>
       <c r="F25" t="n">
-        <v>32.1399</v>
+        <v>39.7779</v>
       </c>
       <c r="G25" t="n">
-        <v>1.54341509960528</v>
+        <v>1.855772078857312</v>
       </c>
     </row>
     <row r="26">
@@ -1027,22 +1027,22 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>24.69100281668329</v>
+        <v>25.0151790270468</v>
       </c>
       <c r="C26" t="n">
-        <v>82.19706130941714</v>
+        <v>84.06745612629616</v>
       </c>
       <c r="D26" t="n">
-        <v>94.8944498115919</v>
+        <v>98.96402060152467</v>
       </c>
       <c r="E26" t="n">
-        <v>4.9452</v>
+        <v>5.3862</v>
       </c>
       <c r="F26" t="n">
-        <v>33.0372</v>
+        <v>97.4121</v>
       </c>
       <c r="G26" t="n">
-        <v>1.562999105414677</v>
+        <v>3.921306012103424</v>
       </c>
     </row>
     <row r="27">
@@ -1050,22 +1050,22 @@
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>25.75582026766501</v>
+        <v>25.85884398525673</v>
       </c>
       <c r="C27" t="n">
-        <v>86.72381603132409</v>
+        <v>85.76483596810432</v>
       </c>
       <c r="D27" t="n">
-        <v>99.87203659175317</v>
+        <v>99.46960507680788</v>
       </c>
       <c r="E27" t="n">
-        <v>6.7884</v>
+        <v>5.6616</v>
       </c>
       <c r="F27" t="n">
-        <v>169.2632</v>
+        <v>84.18000000000001</v>
       </c>
       <c r="G27" t="n">
-        <v>6.324484388705581</v>
+        <v>3.413456599194506</v>
       </c>
     </row>
     <row r="28">
@@ -1073,22 +1073,22 @@
         <v>27</v>
       </c>
       <c r="B28" t="n">
-        <v>26.50868460555417</v>
+        <v>26.1674043595159</v>
       </c>
       <c r="C28" t="n">
-        <v>87.75009691465222</v>
+        <v>85.72332954540181</v>
       </c>
       <c r="D28" t="n">
-        <v>99.73106052060903</v>
+        <v>99.52370179697773</v>
       </c>
       <c r="E28" t="n">
-        <v>9.0137</v>
+        <v>7.7626</v>
       </c>
       <c r="F28" t="n">
-        <v>116.9098</v>
+        <v>106.1509</v>
       </c>
       <c r="G28" t="n">
-        <v>4.259645671688266</v>
+        <v>4.190863623829181</v>
       </c>
     </row>
     <row r="29">
@@ -1096,22 +1096,22 @@
         <v>28</v>
       </c>
       <c r="B29" t="n">
-        <v>26.96317301990215</v>
+        <v>26.85350506057526</v>
       </c>
       <c r="C29" t="n">
-        <v>88.69681770680276</v>
+        <v>89.56937631818877</v>
       </c>
       <c r="D29" t="n">
-        <v>99.90788037716788</v>
+        <v>99.84135239089747</v>
       </c>
       <c r="E29" t="n">
-        <v>9.5266</v>
+        <v>8.0588</v>
       </c>
       <c r="F29" t="n">
-        <v>198.7124</v>
+        <v>210.7341</v>
       </c>
       <c r="G29" t="n">
-        <v>6.907646386780211</v>
+        <v>7.262172496725261</v>
       </c>
     </row>
     <row r="30">
@@ -1119,22 +1119,22 @@
         <v>29</v>
       </c>
       <c r="B30" t="n">
-        <v>27.37102268272411</v>
+        <v>27.45493349749812</v>
       </c>
       <c r="C30" t="n">
-        <v>91.2187225927803</v>
+        <v>92.50465506284364</v>
       </c>
       <c r="D30" t="n">
-        <v>99.65484024573685</v>
+        <v>99.46594032070738</v>
       </c>
       <c r="E30" t="n">
-        <v>9.498799999999999</v>
+        <v>10.897</v>
       </c>
       <c r="F30" t="n">
-        <v>252.8282</v>
+        <v>250.6893</v>
       </c>
       <c r="G30" t="n">
-        <v>8.457889117212845</v>
+        <v>8.021819484263064</v>
       </c>
     </row>
     <row r="31">
@@ -1142,22 +1142,22 @@
         <v>30</v>
       </c>
       <c r="B31" t="n">
-        <v>27.8222886676312</v>
+        <v>28.26500355489249</v>
       </c>
       <c r="C31" t="n">
-        <v>93.74790107525411</v>
+        <v>94.18261330154864</v>
       </c>
       <c r="D31" t="n">
-        <v>99.18686478912888</v>
+        <v>99.86934030707546</v>
       </c>
       <c r="E31" t="n">
-        <v>15.7962</v>
+        <v>19.5086</v>
       </c>
       <c r="F31" t="n">
-        <v>308.4847</v>
+        <v>322.1769</v>
       </c>
       <c r="G31" t="n">
-        <v>9.437253574291189</v>
+        <v>9.482383441351717</v>
       </c>
     </row>
   </sheetData>
